--- a/src/Food Journal.xlsx
+++ b/src/Food Journal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\workspace\DansFoodJournal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\working\DansFoodJournal\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -634,7 +634,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,13 +1035,13 @@
       <c r="G24" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="25" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>41248</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>83</v>

--- a/src/Food Journal.xlsx
+++ b/src/Food Journal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="120">
   <si>
     <t>Date</t>
   </si>
@@ -297,6 +297,93 @@
   </si>
   <si>
     <t>Tuna sandwich</t>
+  </si>
+  <si>
+    <t>Five Guys Burger;Fries;Water</t>
+  </si>
+  <si>
+    <t>Trail Mix</t>
+  </si>
+  <si>
+    <t>Veggie burger; Sweet potatoe fries</t>
+  </si>
+  <si>
+    <t>Chocolate</t>
+  </si>
+  <si>
+    <t>Oreos; Dorritos</t>
+  </si>
+  <si>
+    <t>Scrambled eggs; Bacon; Bagel with butter; Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Pulled pork wrap; Water</t>
+  </si>
+  <si>
+    <t>Chipoltle Burrito; Chips and Guac;Water</t>
+  </si>
+  <si>
+    <t>Scrambled eggs; Sausage; Bagel with butter; Waffle; Butter</t>
+  </si>
+  <si>
+    <t>Pasta with peas, corn, carrots, chicken, and alfredo sauce; Water</t>
+  </si>
+  <si>
+    <t>Rice Crispie Treat</t>
+  </si>
+  <si>
+    <t>Almonds</t>
+  </si>
+  <si>
+    <t>Scrambled eggs; Bacon; French toast; Water</t>
+  </si>
+  <si>
+    <t>Pulled chicken; Rice; Naan; Peas and mushrooms</t>
+  </si>
+  <si>
+    <t>Lamb over rice</t>
+  </si>
+  <si>
+    <t>Bagel with cream cheese</t>
+  </si>
+  <si>
+    <t>Chicken with rice and veggies</t>
+  </si>
+  <si>
+    <t>Gummy Bears</t>
+  </si>
+  <si>
+    <t>Pasta with chicken, veggies, and alfredo sauce</t>
+  </si>
+  <si>
+    <t>Scrambled eggs; Bagel with butter; French toast; Water</t>
+  </si>
+  <si>
+    <t>Pasta with peas, carrots, green &amp; red peppers, broccoli, chicken, and alfredo sauce; Cookies; Water</t>
+  </si>
+  <si>
+    <t>Pork; Mashed potatoes; Green beans; Pasta; Water</t>
+  </si>
+  <si>
+    <t>Cookies</t>
+  </si>
+  <si>
+    <t>Meatball sub; Salad; Chocolate cake; Water</t>
+  </si>
+  <si>
+    <t>Chicken Parm; Water</t>
+  </si>
+  <si>
+    <t>Scrambled eggs; Bacon; Oatmeal; Water</t>
+  </si>
+  <si>
+    <t>Baked Chicken;Mashed potatoes Veggies; Water</t>
+  </si>
+  <si>
+    <t>Chocolate croissant</t>
   </si>
 </sst>
 </file>
@@ -631,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,6 +1176,163 @@
         <v>90</v>
       </c>
     </row>
+    <row r="29" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>41252</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>41253</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>41254</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>41255</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>41256</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>41257</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>41258</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>41259</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>41260</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>41261</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>41262</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/Food Journal.xlsx
+++ b/src/Food Journal.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\working\DansFoodJournal\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\working\FoodJournal\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15165" windowHeight="10020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="165">
   <si>
     <t>Date</t>
   </si>
@@ -384,6 +384,141 @@
   </si>
   <si>
     <t>Chocolate croissant</t>
+  </si>
+  <si>
+    <t>Bagel and Cream Cheese</t>
+  </si>
+  <si>
+    <t>Pulled pork sandwich; Baked beans; Mashed potatoes; Water</t>
+  </si>
+  <si>
+    <t>Fried eggs with cheese; Bacon; Potatoes; English muffin; Chocolate chip pancake</t>
+  </si>
+  <si>
+    <t>Almonds; Bok choy</t>
+  </si>
+  <si>
+    <t>Sausage and green bean with tomato sauce; Rice; Water</t>
+  </si>
+  <si>
+    <t>Strawberries; Tea</t>
+  </si>
+  <si>
+    <t>Ham and cheese sandwich</t>
+  </si>
+  <si>
+    <t>Chips; Cheese; Avacado</t>
+  </si>
+  <si>
+    <t>Butternut squash and almond butter muffin</t>
+  </si>
+  <si>
+    <t>Chicken; Sweet potatoe and brussle sprouts; Onions; Radicchio</t>
+  </si>
+  <si>
+    <t>Apple pie; Chocolate ice cream</t>
+  </si>
+  <si>
+    <t>Sourdough pancakes; Egg</t>
+  </si>
+  <si>
+    <t>Turkey and cheese sandwich; Vegetable and barley soup; Carrot</t>
+  </si>
+  <si>
+    <t>Meat lasagna, Ham; Bread with butter</t>
+  </si>
+  <si>
+    <t>Christmas cookies; cakes;</t>
+  </si>
+  <si>
+    <t>Fried egg with cheese; Collard greens; Bacon; Toast with butter</t>
+  </si>
+  <si>
+    <t>Almond bread; Chips; Cheese; Shrimp; Crackers; Water</t>
+  </si>
+  <si>
+    <t>Ham; Salad; Brussel sprouts and parsnips; Apple sauce</t>
+  </si>
+  <si>
+    <t>Pumpkin pie a la mode</t>
+  </si>
+  <si>
+    <t>Chinese leftovers</t>
+  </si>
+  <si>
+    <t>Pizza; Chocolate cup cake; Water</t>
+  </si>
+  <si>
+    <t>Strawberries and pear</t>
+  </si>
+  <si>
+    <t>Cottage cheese; Bagel with Butter;</t>
+  </si>
+  <si>
+    <t>Bean and cheese burritos with meat and onions; Salad</t>
+  </si>
+  <si>
+    <t>Chocolate chip pancakes; Fried eggs and cheese; Sausage; Bacon; Water</t>
+  </si>
+  <si>
+    <t>Cheez itz; Crackers; Cookies</t>
+  </si>
+  <si>
+    <t>Pancakes</t>
+  </si>
+  <si>
+    <t>Pasta with sausage tomatoe sauce</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t>Donuts</t>
+  </si>
+  <si>
+    <t>Strawberries</t>
+  </si>
+  <si>
+    <t>Waffles</t>
+  </si>
+  <si>
+    <t>Chicken; Mashed potatoes; Salad</t>
+  </si>
+  <si>
+    <t>Carrots and cheese</t>
+  </si>
+  <si>
+    <t>Chips</t>
+  </si>
+  <si>
+    <t>Duck; Lettuce, kale, and pomegranate salad</t>
+  </si>
+  <si>
+    <t>Pumpkin pie; Brownie; Whipped cream</t>
+  </si>
+  <si>
+    <t>PB&amp;J sandwich</t>
+  </si>
+  <si>
+    <t>doritos</t>
+  </si>
+  <si>
+    <t>Ham and cheese sandwich; Chips; Apple</t>
+  </si>
+  <si>
+    <t>Waffle; Eggs; Hashbrowns; Muffin; Tea; Water</t>
+  </si>
+  <si>
+    <t>Turkey and cheese wrap; Chili; Chips</t>
+  </si>
+  <si>
+    <t>Chicken fingers</t>
+  </si>
+  <si>
+    <t>Waffle; English muffin; Muffin; Tea</t>
+  </si>
+  <si>
+    <t>Roast beef and cheedar sandwich</t>
   </si>
 </sst>
 </file>
@@ -718,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,6 +1468,254 @@
         <v>119</v>
       </c>
     </row>
+    <row r="40" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>41263</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>41264</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>41265</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>41266</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>41267</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>41268</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41269</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>41270</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>41271</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>41272</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>41273</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>41274</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>41275</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>41276</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>41277</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>41278</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
